--- a/img/Верстка.xlsx
+++ b/img/Верстка.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marina\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\expert_school\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDF4B1B-C95F-4A57-AAA4-43390982CEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FC1DDE5E-04C1-404A-8FA9-5DB997AA0AF6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>Страница</t>
   </si>
@@ -181,11 +180,29 @@
   <si>
     <t>Без Сохранненое, смена Пароля, Обратная связь, Черновики (Выкатываем сначала только 2 кнопки "Мои данные" и "Соглашения")</t>
   </si>
+  <si>
+    <t>до 22.09</t>
+  </si>
+  <si>
+    <t>до 26.09</t>
+  </si>
+  <si>
+    <t>до 23.09</t>
+  </si>
+  <si>
+    <t>до 24.09</t>
+  </si>
+  <si>
+    <t>до 28.09</t>
+  </si>
+  <si>
+    <t>до 30.09</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -249,7 +266,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,6 +282,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
@@ -354,7 +377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -395,10 +418,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2 2" xfId="1" xr:uid="{96DA84C4-DC64-4C39-B57E-8A18E910E873}"/>
+    <cellStyle name="Обычный 2 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -709,33 +735,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{813438A1-C85D-43E3-85D2-195C8BC9ED6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" customWidth="1"/>
-    <col min="4" max="4" width="48.453125" customWidth="1"/>
+    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="48.42578125" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>0</v>
@@ -750,7 +776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="36" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>1</v>
       </c>
@@ -765,7 +791,7 @@
       </c>
       <c r="E5" s="15"/>
     </row>
-    <row r="6" spans="1:5" ht="24" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2</v>
       </c>
@@ -778,122 +804,140 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" ht="24" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="60" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="72" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="24" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="D11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="72" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="D12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" ht="36" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="36" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="D13" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="24" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -906,7 +950,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="36" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="48" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -919,7 +963,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="8" customFormat="1" ht="36.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" s="8" customFormat="1" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>14</v>
       </c>
@@ -932,7 +976,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>15</v>
       </c>
@@ -948,7 +992,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>16</v>
       </c>
@@ -961,7 +1005,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>17</v>
       </c>
@@ -974,7 +1018,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>18</v>
       </c>
@@ -987,7 +1031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>19</v>
       </c>
@@ -1000,7 +1044,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>20</v>
       </c>
